--- a/biology/Zoologie/Elymnias_hypermnestra/Elymnias_hypermnestra.xlsx
+++ b/biology/Zoologie/Elymnias_hypermnestra/Elymnias_hypermnestra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymnias hypermnestra est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Satyrinae et au genre Elymnias.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymnias hypermnestra a été nommé par Linnaeus en 1763.
-Synonymes : Papilio hypermnestra Linnaeus, 1763; Papilio protogenia Cramer, [1777]; Papilio lais Cramer, [1777][1].
+Synonymes : Papilio hypermnestra Linnaeus, 1763; Papilio protogenia Cramer, ; Papilio lais Cramer, .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nomme Common Palmfly en anglais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Common Palmfly en anglais.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Sous-espèces [2]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elymnias hypermnestra hypermnestra — à Sri Lanka, Java (Indonésie)
 Elymnias hypermnestra alorensis Talbot, 1932 — aux îles Adonara et Alor (Indonésie)
@@ -628,7 +646,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymnias hypermnestra présente, avec des ailes antérieures pointues, un dessus de couleur orange bordé de marron, avec une ornementation de taches blanches ou bleutées ou très bleu formant une ligne à l'intérieur de cette bordure marron.
 Le revers est marron orangé imitant une feuille.
@@ -636,8 +656,6 @@
 			Elymnias hypermnestra hainana femelle
 			Elymnias hypermnestra tinctoria
 			Elymnias hypermnestra undularis
-Chenille
-L'œuf est vert très pâle, la chenille vert clair tout comme la chrysalide[3].
 </t>
         </is>
       </c>
@@ -663,13 +681,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont Cocos nucifera, Calamus pseudo-tenuis, Calamus rotang, Calamus thwaitesii, Phoenix lourerii et Licuala chinensis[4].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuf est vert très pâle, la chenille vert clair tout comme la chrysalide.
 </t>
         </is>
       </c>
@@ -695,16 +718,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il réside dans tout le sud-est de l'Asie : Birmanie, sud de l'Inde, du Viet-Nam, du Laos, du Cambodge et de la Thaïlande, Malaisie, sud-est de la Chine, Ceylan et Bali[1].
-Biotope
-Il réside en forêt et dans les plantations de palmiers ( Elaeis guineensis )[5].
-Protection
-Il n'a pas de statut de protection particulier.
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont Cocos nucifera, Calamus pseudo-tenuis, Calamus rotang, Calamus thwaitesii, Phoenix lourerii et Licuala chinensis.
 </t>
         </is>
       </c>
@@ -730,10 +755,119 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans tout le sud-est de l'Asie : Birmanie, sud de l'Inde, du Viet-Nam, du Laos, du Cambodge et de la Thaïlande, Malaisie, sud-est de la Chine, Ceylan et Bali.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en forêt et dans les plantations de palmiers ( Elaeis guineensis ).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymnias_hypermnestra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Ce papillon figure sur plusieurs émissions philatéliques :
 Laos de 1982 (valeur faciale : 6 k.).
